--- a/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaProjeler\Cucumber_Kursu2\src\test\java\ApachePOI\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B208358D-AD51-5F4D-A9B6-E410E2462E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,16 +426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -458,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -466,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -474,7 +473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -482,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -490,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -498,7 +497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -510,19 +509,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -542,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -562,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -582,7 +581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -602,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -622,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -642,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -662,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>

--- a/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaProjeler\Cucumber_Kursu2\src\test\java\ApachePOI\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318508D5-F4CF-9F4A-8168-47DE7CF15AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8976" activeTab="1"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="17280" windowHeight="8980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,30 +64,6 @@
     <t>bes</t>
   </si>
   <si>
-    <t>ulkeleris11</t>
-  </si>
-  <si>
-    <t>ulkeleris22</t>
-  </si>
-  <si>
-    <t>ulkeleris33</t>
-  </si>
-  <si>
-    <t>ulkeleris44</t>
-  </si>
-  <si>
-    <t>ulkeleris55</t>
-  </si>
-  <si>
-    <t>ulkeleris66</t>
-  </si>
-  <si>
-    <t>ulkeleris77</t>
-  </si>
-  <si>
-    <t>ulkeleris88</t>
-  </si>
-  <si>
     <t>umis1</t>
   </si>
   <si>
@@ -109,16 +86,46 @@
   </si>
   <si>
     <t>umis8</t>
+  </si>
+  <si>
+    <t>citizenship11</t>
+  </si>
+  <si>
+    <t>citizenship12</t>
+  </si>
+  <si>
+    <t>citizenship13</t>
+  </si>
+  <si>
+    <t>citizenship14</t>
+  </si>
+  <si>
+    <t>citizenship15</t>
+  </si>
+  <si>
+    <t>citizenship16</t>
+  </si>
+  <si>
+    <t>citizenship17</t>
+  </si>
+  <si>
+    <t>citizenship18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,16 +433,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -465,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -473,7 +480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -481,7 +488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -489,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -497,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -509,25 +516,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
@@ -541,13 +550,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -561,13 +570,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -581,13 +590,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -601,13 +610,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -621,13 +630,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -641,13 +650,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -661,13 +670,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -682,6 +691,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318508D5-F4CF-9F4A-8168-47DE7CF15AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F455F105-C29D-5D41-833F-1FA2C4A83A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="17280" windowHeight="8980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,30 +64,6 @@
     <t>bes</t>
   </si>
   <si>
-    <t>umis1</t>
-  </si>
-  <si>
-    <t>umis2</t>
-  </si>
-  <si>
-    <t>umis3</t>
-  </si>
-  <si>
-    <t>umis4</t>
-  </si>
-  <si>
-    <t>umis5</t>
-  </si>
-  <si>
-    <t>umis6</t>
-  </si>
-  <si>
-    <t>umis7</t>
-  </si>
-  <si>
-    <t>umis8</t>
-  </si>
-  <si>
     <t>citizenship11</t>
   </si>
   <si>
@@ -110,6 +86,30 @@
   </si>
   <si>
     <t>citizenship18</t>
+  </si>
+  <si>
+    <t>ctz11</t>
+  </si>
+  <si>
+    <t>ctz12</t>
+  </si>
+  <si>
+    <t>ctz13</t>
+  </si>
+  <si>
+    <t>ctz14</t>
+  </si>
+  <si>
+    <t>ctz15</t>
+  </si>
+  <si>
+    <t>ctz16</t>
+  </si>
+  <si>
+    <t>ctz17</t>
+  </si>
+  <si>
+    <t>ctz18</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -532,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>

--- a/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F455F105-C29D-5D41-833F-1FA2C4A83A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81486EF6-18DB-D644-8BBD-E8E7FECD8FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="17280" windowHeight="8980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81486EF6-18DB-D644-8BBD-E8E7FECD8FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CFA3DA-D15C-E54E-8231-A41E617D2D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="17280" windowHeight="8980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="17280" windowHeight="8980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="testCitizen" sheetId="2" r:id="rId2"/>
+    <sheet name="query" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Lion</t>
   </si>
@@ -64,30 +65,6 @@
     <t>bes</t>
   </si>
   <si>
-    <t>citizenship11</t>
-  </si>
-  <si>
-    <t>citizenship12</t>
-  </si>
-  <si>
-    <t>citizenship13</t>
-  </si>
-  <si>
-    <t>citizenship14</t>
-  </si>
-  <si>
-    <t>citizenship15</t>
-  </si>
-  <si>
-    <t>citizenship16</t>
-  </si>
-  <si>
-    <t>citizenship17</t>
-  </si>
-  <si>
-    <t>citizenship18</t>
-  </si>
-  <si>
     <t>ctz11</t>
   </si>
   <si>
@@ -110,6 +87,33 @@
   </si>
   <si>
     <t>ctz18</t>
+  </si>
+  <si>
+    <t>citizenship101</t>
+  </si>
+  <si>
+    <t>citizenship102</t>
+  </si>
+  <si>
+    <t>citizenship103</t>
+  </si>
+  <si>
+    <t>citizenship104</t>
+  </si>
+  <si>
+    <t>citizenship105</t>
+  </si>
+  <si>
+    <t>citizenship106</t>
+  </si>
+  <si>
+    <t>citizenship107</t>
+  </si>
+  <si>
+    <t>citizenship108</t>
+  </si>
+  <si>
+    <t>select * from actor</t>
   </si>
 </sst>
 </file>
@@ -519,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -532,10 +536,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -552,10 +556,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -572,10 +576,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -592,10 +596,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -612,10 +616,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -632,10 +636,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -652,10 +656,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -672,10 +676,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -694,4 +698,25 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E2B09D-85AD-964A-85F9-751664FA19DC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CFA3DA-D15C-E54E-8231-A41E617D2D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2673E-9620-894E-BB0D-67241C3AB8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="17280" windowHeight="8980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="17280" windowHeight="8980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="testCitizen" sheetId="2" r:id="rId2"/>
     <sheet name="query" sheetId="3" r:id="rId3"/>
+    <sheet name="DBTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Lion</t>
   </si>
@@ -114,6 +115,51 @@
   </si>
   <si>
     <t>select * from actor</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>soyad</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Mehmet</t>
+  </si>
+  <si>
+    <t>Samet</t>
+  </si>
+  <si>
+    <t>Fikret</t>
+  </si>
+  <si>
+    <t>YILMAZ</t>
+  </si>
+  <si>
+    <t>YILDIZ</t>
+  </si>
+  <si>
+    <t>DEMIR</t>
+  </si>
+  <si>
+    <t>OZTURK</t>
+  </si>
+  <si>
+    <t>CELIK</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>KAYA</t>
   </si>
 </sst>
 </file>
@@ -704,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E2B09D-85AD-964A-85F9-751664FA19DC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -719,4 +765,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE010BFC-4874-9449-B31C-05957E5E15F7}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>5057645678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>5054567897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>5051490116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>5048412335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>5045334554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>5042256773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>5039178992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>